--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H2">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I2">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J2">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.2698953333333333</v>
+        <v>0.5954815</v>
       </c>
       <c r="N2">
-        <v>0.809686</v>
+        <v>1.190963</v>
       </c>
       <c r="O2">
-        <v>0.1217843147002015</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="P2">
-        <v>0.1467006902679431</v>
+        <v>0.1359316837037387</v>
       </c>
       <c r="Q2">
-        <v>0.491719069056</v>
+        <v>4.39418899443</v>
       </c>
       <c r="R2">
-        <v>2.950314414336</v>
+        <v>17.57675597772</v>
       </c>
       <c r="S2">
-        <v>0.004882164675306855</v>
+        <v>0.01780514971472272</v>
       </c>
       <c r="T2">
-        <v>0.005479864356104077</v>
+        <v>0.01344419098864278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H3">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I3">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J3">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3769893333333334</v>
+        <v>0.2698953333333333</v>
       </c>
       <c r="N3">
-        <v>1.130968</v>
+        <v>0.809686</v>
       </c>
       <c r="O3">
-        <v>0.1701081194782391</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="P3">
-        <v>0.2049112696415093</v>
+        <v>0.09241427420612175</v>
       </c>
       <c r="Q3">
-        <v>0.6868323425280001</v>
+        <v>1.99161704164</v>
       </c>
       <c r="R3">
-        <v>4.120994055168</v>
+        <v>11.94970224984</v>
       </c>
       <c r="S3">
-        <v>0.00681939914794432</v>
+        <v>0.008069985074775615</v>
       </c>
       <c r="T3">
-        <v>0.007654265025076778</v>
+        <v>0.009140143921205122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H4">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I4">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J4">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.1292185</v>
+        <v>0.1259886666666667</v>
       </c>
       <c r="N4">
-        <v>2.258437</v>
+        <v>0.377966</v>
       </c>
       <c r="O4">
-        <v>0.5095349351574172</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="P4">
-        <v>0.4091885827674711</v>
+        <v>0.04313950539417875</v>
       </c>
       <c r="Q4">
-        <v>2.057309634528</v>
+        <v>0.92969808884</v>
       </c>
       <c r="R4">
-        <v>8.229238538112</v>
+        <v>5.578188533040001</v>
       </c>
       <c r="S4">
-        <v>0.02042655055689364</v>
+        <v>0.003767114633046193</v>
       </c>
       <c r="T4">
-        <v>0.01528484920920779</v>
+        <v>0.004266670829583585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H5">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I5">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J5">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07958866666666665</v>
+        <v>0.741235</v>
       </c>
       <c r="N5">
-        <v>0.238766</v>
+        <v>1.48247</v>
       </c>
       <c r="O5">
-        <v>0.03591262993766511</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="P5">
-        <v>0.04326014901148803</v>
+        <v>0.169203109702217</v>
       </c>
       <c r="Q5">
-        <v>0.145001636736</v>
+        <v>5.4697361367</v>
       </c>
       <c r="R5">
-        <v>0.8700098204159999</v>
+        <v>21.8789445468</v>
       </c>
       <c r="S5">
-        <v>0.001439687645413551</v>
+        <v>0.02216324125735644</v>
       </c>
       <c r="T5">
-        <v>0.00161594160310237</v>
+        <v>0.0167348690219035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H6">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I6">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J6">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3604830000000001</v>
+        <v>1.177331</v>
       </c>
       <c r="N6">
-        <v>1.081449</v>
+        <v>3.531993</v>
       </c>
       <c r="O6">
-        <v>0.162660000726477</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="P6">
-        <v>0.1959393083115885</v>
+        <v>0.4031273476336537</v>
       </c>
       <c r="Q6">
-        <v>0.6567596519040001</v>
+        <v>8.68778446182</v>
       </c>
       <c r="R6">
-        <v>3.940557911424</v>
+        <v>52.12670677092</v>
       </c>
       <c r="S6">
-        <v>0.006520814372418349</v>
+        <v>0.03520269684076537</v>
       </c>
       <c r="T6">
-        <v>0.00731912596740514</v>
+        <v>0.03987091829263324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6247593333333333</v>
+        <v>7.37922</v>
       </c>
       <c r="H7">
-        <v>1.874278</v>
+        <v>14.75844</v>
       </c>
       <c r="I7">
-        <v>0.01374713333369322</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J7">
-        <v>0.01921409738972762</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2698953333333333</v>
+        <v>0.4561346666666666</v>
       </c>
       <c r="N7">
-        <v>0.809686</v>
+        <v>1.368404</v>
       </c>
       <c r="O7">
-        <v>0.1217843147002015</v>
+        <v>0.135509714925885</v>
       </c>
       <c r="P7">
-        <v>0.1467006902679431</v>
+        <v>0.15618407936009</v>
       </c>
       <c r="Q7">
-        <v>0.1686196285231111</v>
+        <v>3.36591805496</v>
       </c>
       <c r="R7">
-        <v>1.517576656708</v>
+        <v>20.19550832976</v>
       </c>
       <c r="S7">
-        <v>0.001674185212136125</v>
+        <v>0.01363862022594345</v>
       </c>
       <c r="T7">
-        <v>0.002818721349948525</v>
+        <v>0.01544723448639691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,40 +921,40 @@
         <v>1.874278</v>
       </c>
       <c r="I8">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J8">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.3769893333333334</v>
+        <v>0.5954815</v>
       </c>
       <c r="N8">
-        <v>1.130968</v>
+        <v>1.190963</v>
       </c>
       <c r="O8">
-        <v>0.1701081194782391</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="P8">
-        <v>0.2049112696415093</v>
+        <v>0.1359316837037387</v>
       </c>
       <c r="Q8">
-        <v>0.2355276045671112</v>
+        <v>0.3720326249523334</v>
       </c>
       <c r="R8">
-        <v>2.119748441104</v>
+        <v>2.232195749714</v>
       </c>
       <c r="S8">
-        <v>0.00233849899961117</v>
+        <v>0.001507467383499931</v>
       </c>
       <c r="T8">
-        <v>0.003937185091144696</v>
+        <v>0.001707372283101155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>1.874278</v>
       </c>
       <c r="I9">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J9">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.1292185</v>
+        <v>0.2698953333333333</v>
       </c>
       <c r="N9">
-        <v>2.258437</v>
+        <v>0.809686</v>
       </c>
       <c r="O9">
-        <v>0.5095349351574172</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="P9">
-        <v>0.4091885827674711</v>
+        <v>0.09241427420612175</v>
       </c>
       <c r="Q9">
-        <v>0.7054897972476666</v>
+        <v>0.1686196285231111</v>
       </c>
       <c r="R9">
-        <v>4.232938783486</v>
+        <v>1.517576656708</v>
       </c>
       <c r="S9">
-        <v>0.007004644691783742</v>
+        <v>0.0006832427404694213</v>
       </c>
       <c r="T9">
-        <v>0.007862189280058808</v>
+        <v>0.001160771102389446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>1.874278</v>
       </c>
       <c r="I10">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J10">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.07958866666666665</v>
+        <v>0.1259886666666667</v>
       </c>
       <c r="N10">
-        <v>0.238766</v>
+        <v>0.377966</v>
       </c>
       <c r="O10">
-        <v>0.03591262993766511</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="P10">
-        <v>0.04326014901148803</v>
+        <v>0.04313950539417875</v>
       </c>
       <c r="Q10">
-        <v>0.04972376232755555</v>
+        <v>0.07871259539422222</v>
       </c>
       <c r="R10">
-        <v>0.447513860948</v>
+        <v>0.708413358548</v>
       </c>
       <c r="S10">
-        <v>0.0004936957121166649</v>
+        <v>0.0003189415719726725</v>
       </c>
       <c r="T10">
-        <v>0.0008312047162008599</v>
+        <v>0.0005418545096317947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,45 +1107,45 @@
         <v>1.874278</v>
       </c>
       <c r="I11">
-        <v>0.01374713333369322</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J11">
-        <v>0.01921409738972762</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3604830000000001</v>
+        <v>0.741235</v>
       </c>
       <c r="N11">
-        <v>1.081449</v>
+        <v>1.48247</v>
       </c>
       <c r="O11">
-        <v>0.162660000726477</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="P11">
-        <v>0.1959393083115885</v>
+        <v>0.169203109702217</v>
       </c>
       <c r="Q11">
-        <v>0.225215118758</v>
+        <v>0.4630934844433333</v>
       </c>
       <c r="R11">
-        <v>2.026936068822</v>
+        <v>2.77856090666</v>
       </c>
       <c r="S11">
-        <v>0.002236108718045515</v>
+        <v>0.001876443829083811</v>
       </c>
       <c r="T11">
-        <v>0.003764796952374727</v>
+        <v>0.002125278609435363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6247593333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.874278</v>
+      </c>
+      <c r="I12">
+        <v>0.008521230226216335</v>
+      </c>
+      <c r="J12">
+        <v>0.01256051743478989</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.8733626666666668</v>
-      </c>
-      <c r="H12">
-        <v>2.620088</v>
-      </c>
-      <c r="I12">
-        <v>0.01921737281342981</v>
-      </c>
-      <c r="J12">
-        <v>0.02685974332604697</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2698953333333333</v>
+        <v>1.177331</v>
       </c>
       <c r="N12">
-        <v>0.809686</v>
+        <v>3.531993</v>
       </c>
       <c r="O12">
-        <v>0.1217843147002015</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="P12">
-        <v>0.1467006902679431</v>
+        <v>0.4031273476336537</v>
       </c>
       <c r="Q12">
-        <v>0.2357165080408889</v>
+        <v>0.7355485306726666</v>
       </c>
       <c r="R12">
-        <v>2.121448572368001</v>
+        <v>6.619936776054</v>
       </c>
       <c r="S12">
-        <v>0.002340374578421833</v>
+        <v>0.002980425222418089</v>
       </c>
       <c r="T12">
-        <v>0.003940342886350868</v>
+        <v>0.005063488078393112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6247593333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.874278</v>
+      </c>
+      <c r="I13">
+        <v>0.008521230226216335</v>
+      </c>
+      <c r="J13">
+        <v>0.01256051743478989</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.8733626666666668</v>
-      </c>
-      <c r="H13">
-        <v>2.620088</v>
-      </c>
-      <c r="I13">
-        <v>0.01921737281342981</v>
-      </c>
-      <c r="J13">
-        <v>0.02685974332604697</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3769893333333334</v>
+        <v>0.4561346666666666</v>
       </c>
       <c r="N13">
-        <v>1.130968</v>
+        <v>1.368404</v>
       </c>
       <c r="O13">
-        <v>0.1701081194782391</v>
+        <v>0.135509714925885</v>
       </c>
       <c r="P13">
-        <v>0.2049112696415093</v>
+        <v>0.15618407936009</v>
       </c>
       <c r="Q13">
-        <v>0.329248409464889</v>
+        <v>0.2849743902568889</v>
       </c>
       <c r="R13">
-        <v>2.963235685184001</v>
+        <v>2.564769512312</v>
       </c>
       <c r="S13">
-        <v>0.003269031150604783</v>
+        <v>0.00115470947877241</v>
       </c>
       <c r="T13">
-        <v>0.00550386410718534</v>
+        <v>0.001961752851839018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H14">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I14">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J14">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.1292185</v>
+        <v>0.5954815</v>
       </c>
       <c r="N14">
-        <v>2.258437</v>
+        <v>1.190963</v>
       </c>
       <c r="O14">
-        <v>0.5095349351574172</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="P14">
-        <v>0.4091885827674711</v>
+        <v>0.1359316837037387</v>
       </c>
       <c r="Q14">
-        <v>0.9862172804093334</v>
+        <v>0.2170190643045</v>
       </c>
       <c r="R14">
-        <v>5.917303682456001</v>
+        <v>1.302114385827</v>
       </c>
       <c r="S14">
-        <v>0.009791922810386872</v>
+        <v>0.0008793561077570115</v>
       </c>
       <c r="T14">
-        <v>0.0109907003050832</v>
+        <v>0.0009959673169672282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H15">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I15">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J15">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.07958866666666665</v>
+        <v>0.2698953333333333</v>
       </c>
       <c r="N15">
-        <v>0.238766</v>
+        <v>0.809686</v>
       </c>
       <c r="O15">
-        <v>0.03591262993766511</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="P15">
-        <v>0.04326014901148803</v>
+        <v>0.09241427420612175</v>
       </c>
       <c r="Q15">
-        <v>0.06950977015644445</v>
+        <v>0.098361464966</v>
       </c>
       <c r="R15">
-        <v>0.6255879314080001</v>
+        <v>0.8852531846940001</v>
       </c>
       <c r="S15">
-        <v>0.0006901463982228511</v>
+        <v>0.0003985583260299122</v>
       </c>
       <c r="T15">
-        <v>0.001161956498695113</v>
+        <v>0.0006771165796132433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8733626666666668</v>
+        <v>0.364443</v>
       </c>
       <c r="H16">
-        <v>2.620088</v>
+        <v>1.093329</v>
       </c>
       <c r="I16">
-        <v>0.01921737281342981</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J16">
-        <v>0.02685974332604697</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3604830000000001</v>
+        <v>0.1259886666666667</v>
       </c>
       <c r="N16">
-        <v>1.081449</v>
+        <v>0.377966</v>
       </c>
       <c r="O16">
-        <v>0.162660000726477</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="P16">
-        <v>0.1959393083115885</v>
+        <v>0.04313950539417875</v>
       </c>
       <c r="Q16">
-        <v>0.3148323941680001</v>
+        <v>0.045915687646</v>
       </c>
       <c r="R16">
-        <v>2.833491547512001</v>
+        <v>0.413241188814</v>
       </c>
       <c r="S16">
-        <v>0.003125897875793472</v>
+        <v>0.0001860492786786752</v>
       </c>
       <c r="T16">
-        <v>0.005262879528732447</v>
+        <v>0.0003160818454686127</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>36.970641</v>
+        <v>0.364443</v>
       </c>
       <c r="H17">
-        <v>73.941282</v>
+        <v>1.093329</v>
       </c>
       <c r="I17">
-        <v>0.8134977808933976</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J17">
-        <v>0.7580065462377052</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2698953333333333</v>
+        <v>0.741235</v>
       </c>
       <c r="N17">
-        <v>0.809686</v>
+        <v>1.48247</v>
       </c>
       <c r="O17">
-        <v>0.1217843147002015</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="P17">
-        <v>0.1467006902679431</v>
+        <v>0.169203109702217</v>
       </c>
       <c r="Q17">
-        <v>9.978203476241999</v>
+        <v>0.270137907105</v>
       </c>
       <c r="R17">
-        <v>59.869220857452</v>
+        <v>1.62082744263</v>
       </c>
       <c r="S17">
-        <v>0.09907126975623712</v>
+        <v>0.001094592400491482</v>
       </c>
       <c r="T17">
-        <v>0.1112000835606909</v>
+        <v>0.001239746044490388</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>36.970641</v>
+        <v>0.364443</v>
       </c>
       <c r="H18">
-        <v>73.941282</v>
+        <v>1.093329</v>
       </c>
       <c r="I18">
-        <v>0.8134977808933976</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J18">
-        <v>0.7580065462377052</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3769893333333334</v>
+        <v>1.177331</v>
       </c>
       <c r="N18">
-        <v>1.130968</v>
+        <v>3.531993</v>
       </c>
       <c r="O18">
-        <v>0.1701081194782391</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="P18">
-        <v>0.2049112696415093</v>
+        <v>0.4031273476336537</v>
       </c>
       <c r="Q18">
-        <v>13.937537303496</v>
+        <v>0.429070041633</v>
       </c>
       <c r="R18">
-        <v>83.62522382097602</v>
+        <v>3.861630374697</v>
       </c>
       <c r="S18">
-        <v>0.1383825777074965</v>
+        <v>0.001738581644772625</v>
       </c>
       <c r="T18">
-        <v>0.1553240837861436</v>
+        <v>0.002953701829323859</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>36.970641</v>
+        <v>0.364443</v>
       </c>
       <c r="H19">
-        <v>73.941282</v>
+        <v>1.093329</v>
       </c>
       <c r="I19">
-        <v>0.8134977808933976</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J19">
-        <v>0.7580065462377052</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.1292185</v>
+        <v>0.4561346666666666</v>
       </c>
       <c r="N19">
-        <v>2.258437</v>
+        <v>1.368404</v>
       </c>
       <c r="O19">
-        <v>0.5095349351574172</v>
+        <v>0.135509714925885</v>
       </c>
       <c r="P19">
-        <v>0.4091885827674711</v>
+        <v>0.15618407936009</v>
       </c>
       <c r="Q19">
-        <v>41.7479317740585</v>
+        <v>0.166235086324</v>
       </c>
       <c r="R19">
-        <v>166.991727096234</v>
+        <v>1.496115776916</v>
       </c>
       <c r="S19">
-        <v>0.4145055390382202</v>
+        <v>0.0006735806319642874</v>
       </c>
       <c r="T19">
-        <v>0.3101676243834721</v>
+        <v>0.001144356004684631</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H20">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I20">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J20">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.07958866666666665</v>
+        <v>0.5954815</v>
       </c>
       <c r="N20">
-        <v>0.238766</v>
+        <v>1.190963</v>
       </c>
       <c r="O20">
-        <v>0.03591262993766511</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="P20">
-        <v>0.04326014901148803</v>
+        <v>0.1359316837037387</v>
       </c>
       <c r="Q20">
-        <v>2.942444023001999</v>
+        <v>37.7266667159795</v>
       </c>
       <c r="R20">
-        <v>17.654664138012</v>
+        <v>150.906666863918</v>
       </c>
       <c r="S20">
-        <v>0.02921484476033636</v>
+        <v>0.1528675598539194</v>
       </c>
       <c r="T20">
-        <v>0.03279147614192652</v>
+        <v>0.1154261943073966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.970641</v>
+        <v>63.354893</v>
       </c>
       <c r="H21">
-        <v>73.941282</v>
+        <v>126.709786</v>
       </c>
       <c r="I21">
-        <v>0.8134977808933976</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J21">
-        <v>0.7580065462377052</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3604830000000001</v>
+        <v>0.2698953333333333</v>
       </c>
       <c r="N21">
-        <v>1.081449</v>
+        <v>0.809686</v>
       </c>
       <c r="O21">
-        <v>0.162660000726477</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="P21">
-        <v>0.1959393083115885</v>
+        <v>0.09241427420612175</v>
       </c>
       <c r="Q21">
-        <v>13.327287579603</v>
+        <v>17.09918996453267</v>
       </c>
       <c r="R21">
-        <v>79.96372547761801</v>
+        <v>102.595139787196</v>
       </c>
       <c r="S21">
-        <v>0.1323235496311075</v>
+        <v>0.06928551268616548</v>
       </c>
       <c r="T21">
-        <v>0.1485232783654721</v>
+        <v>0.07847344843120967</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.285985333333333</v>
+        <v>63.354893</v>
       </c>
       <c r="H22">
-        <v>12.857956</v>
+        <v>126.709786</v>
       </c>
       <c r="I22">
-        <v>0.09430833394553031</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J22">
-        <v>0.1318129001230514</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.2698953333333333</v>
+        <v>0.1259886666666667</v>
       </c>
       <c r="N22">
-        <v>0.809686</v>
+        <v>0.377966</v>
       </c>
       <c r="O22">
-        <v>0.1217843147002015</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="P22">
-        <v>0.1467006902679431</v>
+        <v>0.04313950539417875</v>
       </c>
       <c r="Q22">
-        <v>1.156767440201778</v>
+        <v>7.981998495879334</v>
       </c>
       <c r="R22">
-        <v>10.410906961816</v>
+        <v>47.89199097527601</v>
       </c>
       <c r="S22">
-        <v>0.01148527582007416</v>
+        <v>0.03234286882561786</v>
       </c>
       <c r="T22">
-        <v>0.01933704343427108</v>
+        <v>0.03663184914862131</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.285985333333333</v>
+        <v>63.354893</v>
       </c>
       <c r="H23">
-        <v>12.857956</v>
+        <v>126.709786</v>
       </c>
       <c r="I23">
-        <v>0.09430833394553031</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J23">
-        <v>0.1318129001230514</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3769893333333334</v>
+        <v>0.741235</v>
       </c>
       <c r="N23">
-        <v>1.130968</v>
+        <v>1.48247</v>
       </c>
       <c r="O23">
-        <v>0.1701081194782391</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="P23">
-        <v>0.2049112696415093</v>
+        <v>0.169203109702217</v>
       </c>
       <c r="Q23">
-        <v>1.615770753489778</v>
+        <v>46.960864112855</v>
       </c>
       <c r="R23">
-        <v>14.541936781408</v>
+        <v>187.84345645142</v>
       </c>
       <c r="S23">
-        <v>0.01604261333859995</v>
+        <v>0.1902843089639559</v>
       </c>
       <c r="T23">
-        <v>0.02700994871934392</v>
+        <v>0.1436785779867941</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>63.354893</v>
+      </c>
+      <c r="H24">
+        <v>126.709786</v>
+      </c>
+      <c r="I24">
+        <v>0.8641113472125828</v>
+      </c>
+      <c r="J24">
+        <v>0.8491485661206588</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>4.285985333333333</v>
-      </c>
-      <c r="H24">
-        <v>12.857956</v>
-      </c>
-      <c r="I24">
-        <v>0.09430833394553031</v>
-      </c>
-      <c r="J24">
-        <v>0.1318129001230514</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.1292185</v>
+        <v>1.177331</v>
       </c>
       <c r="N24">
-        <v>2.258437</v>
+        <v>3.531993</v>
       </c>
       <c r="O24">
-        <v>0.5095349351574172</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="P24">
-        <v>0.4091885827674711</v>
+        <v>0.4031273476336537</v>
       </c>
       <c r="Q24">
-        <v>4.839813929128665</v>
+        <v>74.589679530583</v>
       </c>
       <c r="R24">
-        <v>29.03888357477199</v>
+        <v>447.538077183498</v>
       </c>
       <c r="S24">
-        <v>0.04805339082173984</v>
+        <v>0.3022356145579245</v>
       </c>
       <c r="T24">
-        <v>0.0539363337918216</v>
+        <v>0.3423150092071414</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>63.354893</v>
+      </c>
+      <c r="H25">
+        <v>126.709786</v>
+      </c>
+      <c r="I25">
+        <v>0.8641113472125828</v>
+      </c>
+      <c r="J25">
+        <v>0.8491485661206588</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.285985333333333</v>
-      </c>
-      <c r="H25">
-        <v>12.857956</v>
-      </c>
-      <c r="I25">
-        <v>0.09430833394553031</v>
-      </c>
-      <c r="J25">
-        <v>0.1318129001230514</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07958866666666665</v>
+        <v>0.4561346666666666</v>
       </c>
       <c r="N25">
-        <v>0.238766</v>
+        <v>1.368404</v>
       </c>
       <c r="O25">
-        <v>0.03591262993766511</v>
+        <v>0.135509714925885</v>
       </c>
       <c r="P25">
-        <v>0.04326014901148803</v>
+        <v>0.15618407936009</v>
       </c>
       <c r="Q25">
-        <v>0.3411158580328888</v>
+        <v>28.89836300025733</v>
       </c>
       <c r="R25">
-        <v>3.070042722295999</v>
+        <v>173.390178001544</v>
       </c>
       <c r="S25">
-        <v>0.00338686029702357</v>
+        <v>0.1170954823249996</v>
       </c>
       <c r="T25">
-        <v>0.005702245700959591</v>
+        <v>0.1326234870394956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.285985333333333</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H26">
-        <v>12.857956</v>
+        <v>3.043373</v>
       </c>
       <c r="I26">
-        <v>0.09430833394553031</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J26">
-        <v>0.1318129001230514</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.3604830000000001</v>
+        <v>0.5954815</v>
       </c>
       <c r="N26">
-        <v>1.081449</v>
+        <v>1.190963</v>
       </c>
       <c r="O26">
-        <v>0.162660000726477</v>
+        <v>0.1769072473669437</v>
       </c>
       <c r="P26">
-        <v>0.1959393083115885</v>
+        <v>0.1359316837037387</v>
       </c>
       <c r="Q26">
-        <v>1.545024850916</v>
+        <v>0.6040907730331667</v>
       </c>
       <c r="R26">
-        <v>13.905223658244</v>
+        <v>3.624544638199</v>
       </c>
       <c r="S26">
-        <v>0.01534019366809279</v>
+        <v>0.002447761502468863</v>
       </c>
       <c r="T26">
-        <v>0.02582732847665518</v>
+        <v>0.00277235858679364</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.869881</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H27">
-        <v>2.609643</v>
+        <v>3.043373</v>
       </c>
       <c r="I27">
-        <v>0.01914076261597221</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J27">
-        <v>0.02675266676257255</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,27 +2117,27 @@
         <v>0.809686</v>
       </c>
       <c r="O27">
-        <v>0.1217843147002015</v>
+        <v>0.08018123232574602</v>
       </c>
       <c r="P27">
-        <v>0.1467006902679431</v>
+        <v>0.09241427420612175</v>
       </c>
       <c r="Q27">
-        <v>0.2347768224553333</v>
+        <v>0.2737973900975555</v>
       </c>
       <c r="R27">
-        <v>2.112991402098</v>
+        <v>2.464176510878</v>
       </c>
       <c r="S27">
-        <v>0.002331044658025412</v>
+        <v>0.001109420538890519</v>
       </c>
       <c r="T27">
-        <v>0.003924634680577651</v>
+        <v>0.001884810808317803</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.869881</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H28">
-        <v>2.609643</v>
+        <v>3.043373</v>
       </c>
       <c r="I28">
-        <v>0.01914076261597221</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J28">
-        <v>0.02675266676257255</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.3769893333333334</v>
+        <v>0.1259886666666667</v>
       </c>
       <c r="N28">
-        <v>1.130968</v>
+        <v>0.377966</v>
       </c>
       <c r="O28">
-        <v>0.1701081194782391</v>
+        <v>0.03742905232056985</v>
       </c>
       <c r="P28">
-        <v>0.2049112696415093</v>
+        <v>0.04313950539417875</v>
       </c>
       <c r="Q28">
-        <v>0.3279358582693334</v>
+        <v>0.1278101688131111</v>
       </c>
       <c r="R28">
-        <v>2.951422724424001</v>
+        <v>1.150291519318</v>
       </c>
       <c r="S28">
-        <v>0.003255999133982414</v>
+        <v>0.0005178837764297443</v>
       </c>
       <c r="T28">
-        <v>0.005481922912614947</v>
+        <v>0.0008798403356074413</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.869881</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H29">
-        <v>2.609643</v>
+        <v>3.043373</v>
       </c>
       <c r="I29">
-        <v>0.01914076261597221</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J29">
-        <v>0.02675266676257255</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.1292185</v>
+        <v>0.741235</v>
       </c>
       <c r="N29">
-        <v>2.258437</v>
+        <v>1.48247</v>
       </c>
       <c r="O29">
-        <v>0.5095349351574172</v>
+        <v>0.2202080895914256</v>
       </c>
       <c r="P29">
-        <v>0.4091885827674711</v>
+        <v>0.169203109702217</v>
       </c>
       <c r="Q29">
-        <v>0.9822857179985</v>
+        <v>0.7519515285516667</v>
       </c>
       <c r="R29">
-        <v>5.893714307991</v>
+        <v>4.51170917131</v>
       </c>
       <c r="S29">
-        <v>0.009752887238392917</v>
+        <v>0.003046889781265258</v>
       </c>
       <c r="T29">
-        <v>0.01094688579782749</v>
+        <v>0.00345093712748756</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.869881</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H30">
-        <v>2.609643</v>
+        <v>3.043373</v>
       </c>
       <c r="I30">
-        <v>0.01914076261597221</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J30">
-        <v>0.02675266676257255</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.07958866666666665</v>
+        <v>1.177331</v>
       </c>
       <c r="N30">
-        <v>0.238766</v>
+        <v>3.531993</v>
       </c>
       <c r="O30">
-        <v>0.03591262993766511</v>
+        <v>0.3497646634694297</v>
       </c>
       <c r="P30">
-        <v>0.04326014901148803</v>
+        <v>0.4031273476336537</v>
       </c>
       <c r="Q30">
-        <v>0.06923266894866666</v>
+        <v>1.194352459154333</v>
       </c>
       <c r="R30">
-        <v>0.623094020538</v>
+        <v>10.749172132389</v>
       </c>
       <c r="S30">
-        <v>0.0006873951245521048</v>
+        <v>0.004839487872357359</v>
       </c>
       <c r="T30">
-        <v>0.001157324350603572</v>
+        <v>0.008221876852635245</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,46 +2341,418 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.869881</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H31">
-        <v>2.609643</v>
+        <v>3.043373</v>
       </c>
       <c r="I31">
-        <v>0.01914076261597221</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J31">
-        <v>0.02675266676257255</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4561346666666666</v>
+      </c>
+      <c r="N31">
+        <v>1.368404</v>
+      </c>
+      <c r="O31">
+        <v>0.135509714925885</v>
+      </c>
+      <c r="P31">
+        <v>0.15618407936009</v>
+      </c>
+      <c r="Q31">
+        <v>0.4627293096324444</v>
+      </c>
+      <c r="R31">
+        <v>4.164563786692</v>
+      </c>
+      <c r="S31">
+        <v>0.001874968201376758</v>
+      </c>
+      <c r="T31">
+        <v>0.003185410948621211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M31">
-        <v>0.3604830000000001</v>
-      </c>
-      <c r="N31">
-        <v>1.081449</v>
-      </c>
-      <c r="O31">
-        <v>0.162660000726477</v>
-      </c>
-      <c r="P31">
-        <v>0.1959393083115885</v>
-      </c>
-      <c r="Q31">
-        <v>0.313577312523</v>
-      </c>
-      <c r="R31">
-        <v>2.822195812707001</v>
-      </c>
-      <c r="S31">
-        <v>0.003113436461019364</v>
-      </c>
-      <c r="T31">
-        <v>0.005241899020948887</v>
+      <c r="G32">
+        <v>0.5802006666666667</v>
+      </c>
+      <c r="H32">
+        <v>1.740602</v>
+      </c>
+      <c r="I32">
+        <v>0.007913484752108601</v>
+      </c>
+      <c r="J32">
+        <v>0.01166468462417536</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.5954815</v>
+      </c>
+      <c r="N32">
+        <v>1.190963</v>
+      </c>
+      <c r="O32">
+        <v>0.1769072473669437</v>
+      </c>
+      <c r="P32">
+        <v>0.1359316837037387</v>
+      </c>
+      <c r="Q32">
+        <v>0.3454987632876667</v>
+      </c>
+      <c r="R32">
+        <v>2.072992579726</v>
+      </c>
+      <c r="S32">
+        <v>0.001399952804575814</v>
+      </c>
+      <c r="T32">
+        <v>0.00158560022083727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.5802006666666667</v>
+      </c>
+      <c r="H33">
+        <v>1.740602</v>
+      </c>
+      <c r="I33">
+        <v>0.007913484752108601</v>
+      </c>
+      <c r="J33">
+        <v>0.01166468462417536</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.2698953333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.809686</v>
+      </c>
+      <c r="O33">
+        <v>0.08018123232574602</v>
+      </c>
+      <c r="P33">
+        <v>0.09241427420612175</v>
+      </c>
+      <c r="Q33">
+        <v>0.1565934523302222</v>
+      </c>
+      <c r="R33">
+        <v>1.409341070972</v>
+      </c>
+      <c r="S33">
+        <v>0.0006345129594150684</v>
+      </c>
+      <c r="T33">
+        <v>0.001077983363386474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.5802006666666667</v>
+      </c>
+      <c r="H34">
+        <v>1.740602</v>
+      </c>
+      <c r="I34">
+        <v>0.007913484752108601</v>
+      </c>
+      <c r="J34">
+        <v>0.01166468462417536</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.1259886666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.377966</v>
+      </c>
+      <c r="O34">
+        <v>0.03742905232056985</v>
+      </c>
+      <c r="P34">
+        <v>0.04313950539417875</v>
+      </c>
+      <c r="Q34">
+        <v>0.07309870839244445</v>
+      </c>
+      <c r="R34">
+        <v>0.6578883755320001</v>
+      </c>
+      <c r="S34">
+        <v>0.0002961942348247046</v>
+      </c>
+      <c r="T34">
+        <v>0.000503208725266007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.5802006666666667</v>
+      </c>
+      <c r="H35">
+        <v>1.740602</v>
+      </c>
+      <c r="I35">
+        <v>0.007913484752108601</v>
+      </c>
+      <c r="J35">
+        <v>0.01166468462417536</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.741235</v>
+      </c>
+      <c r="N35">
+        <v>1.48247</v>
+      </c>
+      <c r="O35">
+        <v>0.2202080895914256</v>
+      </c>
+      <c r="P35">
+        <v>0.169203109702217</v>
+      </c>
+      <c r="Q35">
+        <v>0.4300650411566667</v>
+      </c>
+      <c r="R35">
+        <v>2.58039024694</v>
+      </c>
+      <c r="S35">
+        <v>0.001742613359272711</v>
+      </c>
+      <c r="T35">
+        <v>0.001973700912106108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.5802006666666667</v>
+      </c>
+      <c r="H36">
+        <v>1.740602</v>
+      </c>
+      <c r="I36">
+        <v>0.007913484752108601</v>
+      </c>
+      <c r="J36">
+        <v>0.01166468462417536</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.177331</v>
+      </c>
+      <c r="N36">
+        <v>3.531993</v>
+      </c>
+      <c r="O36">
+        <v>0.3497646634694297</v>
+      </c>
+      <c r="P36">
+        <v>0.4031273476336537</v>
+      </c>
+      <c r="Q36">
+        <v>0.6830882310873333</v>
+      </c>
+      <c r="R36">
+        <v>6.147794079786</v>
+      </c>
+      <c r="S36">
+        <v>0.002767857331191728</v>
+      </c>
+      <c r="T36">
+        <v>0.004702353373526877</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.5802006666666667</v>
+      </c>
+      <c r="H37">
+        <v>1.740602</v>
+      </c>
+      <c r="I37">
+        <v>0.007913484752108601</v>
+      </c>
+      <c r="J37">
+        <v>0.01166468462417536</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4561346666666666</v>
+      </c>
+      <c r="N37">
+        <v>1.368404</v>
+      </c>
+      <c r="O37">
+        <v>0.135509714925885</v>
+      </c>
+      <c r="P37">
+        <v>0.15618407936009</v>
+      </c>
+      <c r="Q37">
+        <v>0.2646496376897778</v>
+      </c>
+      <c r="R37">
+        <v>2.381846739208</v>
+      </c>
+      <c r="S37">
+        <v>0.001072354062828575</v>
+      </c>
+      <c r="T37">
+        <v>0.001821838029052626</v>
       </c>
     </row>
   </sheetData>
